--- a/excel/repas.xlsx
+++ b/excel/repas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE90291-2931-D74B-A8C2-F0E6C7FADC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3761AEF-0B43-DC4B-953C-3486456BD3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="560" windowWidth="34040" windowHeight="28180" activeTab="3" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="29900" yWindow="500" windowWidth="34040" windowHeight="28180" activeTab="3" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="DEJEUNER" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>code</t>
   </si>
@@ -194,18 +194,6 @@
     <t>Dessert</t>
   </si>
   <si>
-    <t>Jus en fontaine</t>
-  </si>
-  <si>
-    <t>Fountain juice</t>
-  </si>
-  <si>
-    <t>Pain / Rôties</t>
-  </si>
-  <si>
-    <t>Bread /Toast</t>
-  </si>
-  <si>
     <t>Thé et café</t>
   </si>
   <si>
@@ -243,6 +231,12 @@
   </si>
   <si>
     <t>**Lunch box - 10h**&lt;br/&gt; Cold meat wrap, raw vegetables dip, cheese, orzo and Indian chickpea salad, biscuit, 200ml juice</t>
+  </si>
+  <si>
+    <t>Rôties</t>
+  </si>
+  <si>
+    <t>Toast</t>
   </si>
 </sst>
 </file>
@@ -312,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -338,15 +332,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -368,7 +358,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -406,7 +396,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -512,7 +502,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -838,10 +828,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1036,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7675F6D-E77C-884B-B4A2-C26402FFC2F4}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,220 +1041,193 @@
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/repas.xlsx
+++ b/excel/repas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3761AEF-0B43-DC4B-953C-3486456BD3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B614D2-59DF-044D-94BB-82C32FB783B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29900" yWindow="500" windowWidth="34040" windowHeight="28180" activeTab="3" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="29900" yWindow="500" windowWidth="34040" windowHeight="28180" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="DEJEUNER" sheetId="4" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Soupe/potage, pain, salade repas au poulet grillé ou tacos, salade de fruits ou brownie, breuvage (jus, café, lait)</t>
   </si>
   <si>
-    <t>Soupe/potage, pain, lasagne italienne, salade césar, carré aux fraises, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
     <t>Soup, bread, chicken fajitas, grilled vegetables, vegetable rice, green salad, apple crisp drink (juice, coffee, milk)</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Soup, bread, grilled chicken meal salad or tacos, fruit salad or brownie, beverage (juice, coffee, milk)</t>
   </si>
   <si>
-    <t>Soup, bread, Italian lasagna, Caesar salad, strawberry square, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
     <t>Dim_Av</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>Toast</t>
+  </si>
+  <si>
+    <t>**Boîte à lunch - xxh**&lt;br/&gt; TBD</t>
+  </si>
+  <si>
+    <t>**Lunch box - xxh**&lt;br/&gt; TBD</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C23D3F-FE64-A34F-B126-68B68B58113C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -795,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -819,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -828,10 +828,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -843,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -852,10 +852,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -912,13 +912,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -927,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -939,10 +939,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -954,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -963,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -975,10 +975,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -987,10 +987,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -999,10 +999,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -1028,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7675F6D-E77C-884B-B4A2-C26402FFC2F4}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1043,30 +1043,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -1163,16 +1163,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1183,42 +1183,42 @@
     </row>
     <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel/repas.xlsx
+++ b/excel/repas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B614D2-59DF-044D-94BB-82C32FB783B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809D1085-221B-C348-88EB-CA4D35323421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29900" yWindow="500" windowWidth="34040" windowHeight="28180" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="DEJEUNER" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>code</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Semaine</t>
   </si>
   <si>
-    <t>Œuf brouillé, bacon, jambon, saucisse, crêpe avec sirop, céréale froide, grille cheese, banane, orange et pomme, breuvage (jus d’orange 200 ml, café)</t>
-  </si>
-  <si>
-    <t>Scrambled egg, bacon, ham, sausage, pancake with syrup, cold cereal, grilled cheese, banana, orange and apple, beverage (200 ml orange juice, coffee)</t>
-  </si>
-  <si>
     <t>Soupe/potage, pain, fajitas au poulet, légumes grillés, riz aux légumes, salade verte, croustade aux pommes breuvage (jus, café, lait)</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Soupe/potage, pain, pain viande sauce tomate, pomme de terre purée, légumes jardinière, gâteau chocolat, breuvage (jus, café, lait)</t>
   </si>
   <si>
-    <t>Soupe/potage, pain, pizza all dress ou peppéroni et fromage, salade césar, pouding chaumeur, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
     <t>Repas à Malartic</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>Soup, bread, meatloaf with tomato sauce, mashed potatoes, garden vegetables, chocolate cake, beverage (juice, coffee, milk)</t>
   </si>
   <si>
-    <t>Soup, bread, all-dress pizza or pepperoni and cheese, Caesar salad, chaumeur pudding, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
     <t>Dinner at Malartic</t>
   </si>
   <si>
@@ -155,18 +143,6 @@
     <t>Soup, bread, chicken supreme with leek gratin, rice pilaf, garden vegetables, chocolate banana cake, beverage (juice, coffee, milk)</t>
   </si>
   <si>
-    <t>Jus pur 100 %</t>
-  </si>
-  <si>
-    <t>100 % Pure Juice</t>
-  </si>
-  <si>
-    <t>Lait</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
     <t>Entrée</t>
   </si>
   <si>
@@ -237,6 +213,30 @@
   </si>
   <si>
     <t>**Lunch box - xxh**&lt;br/&gt; TBD</t>
+  </si>
+  <si>
+    <t>Petit pain</t>
+  </si>
+  <si>
+    <t>Bread roll</t>
+  </si>
+  <si>
+    <t>Jus pur 100 % ou lait</t>
+  </si>
+  <si>
+    <t>100 % Pure Juice or milk</t>
+  </si>
+  <si>
+    <t>Œuf brouillé, bacon, jambon, saucisse, crêpe avec sirop, céréale froide, gruau, banane, orange et pomme, breuvage (jus purs 200 ml, café)</t>
+  </si>
+  <si>
+    <t>Scrambled egg, bacon, ham, sausage, pancake with syrup, cold cereal, oatmeal, banana, orange and apple, beverage (200 ml pure juice, coffee)</t>
+  </si>
+  <si>
+    <t>Soup, bread, all-dressed pizza or pepperoni and cheese, Caesar salad, chômeur pudding, beverage (juice, coffee, milk)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, pizza toute garnie ou peppéroni et fromage, salade césar, pouding chômeur, breuvage (jus, café, lait)</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1314D49-CBC5-374D-B305-DE39B33735B2}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C23D3F-FE64-A34F-B126-68B68B58113C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -780,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -792,10 +792,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -804,10 +804,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -816,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -828,10 +828,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -840,10 +840,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -852,10 +852,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3D42E8-669B-B647-ACD9-AC2439DE8945}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -912,13 +912,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -927,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -939,10 +939,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -951,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -963,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -975,10 +975,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -987,10 +987,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -999,10 +999,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -1029,13 +1029,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
@@ -1043,30 +1043,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1083,16 +1083,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1143,16 +1143,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -1163,16 +1163,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1183,42 +1183,42 @@
     </row>
     <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel/repas.xlsx
+++ b/excel/repas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809D1085-221B-C348-88EB-CA4D35323421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE83D802-95E2-3744-867C-FEE868761390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="DEJEUNER" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SOUPER" sheetId="5" r:id="rId3"/>
     <sheet name="QTY" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>code</t>
   </si>
@@ -221,22 +221,28 @@
     <t>Bread roll</t>
   </si>
   <si>
-    <t>Jus pur 100 % ou lait</t>
-  </si>
-  <si>
-    <t>100 % Pure Juice or milk</t>
-  </si>
-  <si>
-    <t>Œuf brouillé, bacon, jambon, saucisse, crêpe avec sirop, céréale froide, gruau, banane, orange et pomme, breuvage (jus purs 200 ml, café)</t>
-  </si>
-  <si>
-    <t>Scrambled egg, bacon, ham, sausage, pancake with syrup, cold cereal, oatmeal, banana, orange and apple, beverage (200 ml pure juice, coffee)</t>
-  </si>
-  <si>
     <t>Soup, bread, all-dressed pizza or pepperoni and cheese, Caesar salad, chômeur pudding, beverage (juice, coffee, milk)</t>
   </si>
   <si>
     <t>Soupe/potage, pain, pizza toute garnie ou peppéroni et fromage, salade césar, pouding chômeur, breuvage (jus, café, lait)</t>
+  </si>
+  <si>
+    <t>Lait</t>
+  </si>
+  <si>
+    <t>Jus pur 100 %</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>100 % Pure Juice</t>
+  </si>
+  <si>
+    <t>Œuf brouillé, bacon, jambon, saucisse, crêpe avec sirop, céréale froide, gruau, banane, orange et pomme, breuvage (jus purs 200 ml, lait, café)</t>
+  </si>
+  <si>
+    <t>Scrambled egg, bacon, ham, sausage, pancake with syrup, cold cereal, oatmeal, banana, orange and apple, beverage (200 ml pure juice, milk, coffee)</t>
   </si>
 </sst>
 </file>
@@ -654,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1314D49-CBC5-374D-B305-DE39B33735B2}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -684,10 +690,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -885,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3D42E8-669B-B647-ACD9-AC2439DE8945}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -939,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1026,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7675F6D-E77C-884B-B4A2-C26402FFC2F4}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,10 +1069,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1083,16 +1089,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -1103,16 +1109,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -1123,10 +1129,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1143,16 +1149,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -1163,10 +1169,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>43</v>
@@ -1181,32 +1187,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>43</v>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>44</v>
@@ -1215,19 +1221,39 @@
         <v>45</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/repas.xlsx
+++ b/excel/repas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE83D802-95E2-3744-867C-FEE868761390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE201B0C-ABF4-7A44-8000-D45F869DF585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="31920" yWindow="6260" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="DEJEUNER" sheetId="4" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Repas à Malartic</t>
   </si>
   <si>
-    <t>Repas à Senneterre</t>
-  </si>
-  <si>
     <t>Soupe/potage, pain, émincé de bœuf aux champignons, nouilles au beurre, légumes du jour, tarte au citron chantilly, breuvage (jus, café, lait)</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Dinner at Malartic</t>
   </si>
   <si>
-    <t>Dinner at Senneterre</t>
-  </si>
-  <si>
     <t>Soup, bread, minced beef with mushrooms, buttered noodles, vegetables of the day, lemon whipped cream pie, beverage (juice, coffee, milk)</t>
   </si>
   <si>
@@ -197,24 +191,12 @@
     <t>din_souper_EN</t>
   </si>
   <si>
-    <t>**Boîte à lunch - 10h**&lt;br/&gt; Wrap à la viande froide, crudité trempette, fromage, salade d’orzo et pois chiche à l’indienne, biscuit, jus 200ml</t>
-  </si>
-  <si>
-    <t>**Lunch box - 10h**&lt;br/&gt; Cold meat wrap, raw vegetables dip, cheese, orzo and Indian chickpea salad, biscuit, 200ml juice</t>
-  </si>
-  <si>
     <t>Rôties</t>
   </si>
   <si>
     <t>Toast</t>
   </si>
   <si>
-    <t>**Boîte à lunch - xxh**&lt;br/&gt; TBD</t>
-  </si>
-  <si>
-    <t>**Lunch box - xxh**&lt;br/&gt; TBD</t>
-  </si>
-  <si>
     <t>Petit pain</t>
   </si>
   <si>
@@ -243,6 +225,24 @@
   </si>
   <si>
     <t>Scrambled egg, bacon, ham, sausage, pancake with syrup, cold cereal, oatmeal, banana, orange and apple, beverage (200 ml pure juice, milk, coffee)</t>
+  </si>
+  <si>
+    <t>**Lunch box **&lt;br/&gt; Cold meat wrap, raw vegetables dip, cheese, orzo and Indian chickpea salad, biscuit, 200ml juice</t>
+  </si>
+  <si>
+    <t>**Boîte à lunch**&lt;br/&gt; Wrap à la viande froide, crudité trempette, fromage, salade d’orzo et pois chiche à l’indienne, biscuit, jus 200ml</t>
+  </si>
+  <si>
+    <t>**Boîte à lunch**&lt;br/&gt; À confirmer</t>
+  </si>
+  <si>
+    <t>**Lunch box**&lt;br/&gt; TBD</t>
+  </si>
+  <si>
+    <t>Spaghetti, dessert, breuvage (jus, café, lait) *À valider*</t>
+  </si>
+  <si>
+    <t>Spaghetti, dessert, beverage (juice, coffee, milk) *TBD*</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1314D49-CBC5-374D-B305-DE39B33735B2}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,10 +690,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C23D3F-FE64-A34F-B126-68B68B58113C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,10 +834,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -858,10 +858,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3D42E8-669B-B647-ACD9-AC2439DE8945}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -936,7 +936,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -945,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -972,7 +972,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -981,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -993,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -1049,30 +1049,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1109,16 +1109,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1189,16 +1189,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -1209,42 +1209,42 @@
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel/repas.xlsx
+++ b/excel/repas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE201B0C-ABF4-7A44-8000-D45F869DF585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7B31F-B96F-4E47-9EBF-4DFFB38F0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="6260" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="34140" yWindow="560" windowWidth="34080" windowHeight="28180" activeTab="2" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="DEJEUNER" sheetId="4" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Semaine</t>
   </si>
   <si>
-    <t>Soupe/potage, pain, fajitas au poulet, légumes grillés, riz aux légumes, salade verte, croustade aux pommes breuvage (jus, café, lait)</t>
-  </si>
-  <si>
     <t>Soupe/potage, pain, tournedos au poulet BBQ, pomme de terre grecque, carotte et navet au beurre, tarte au sucre, breuvage (jus, café, lait)</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Spaghetti, dessert, beverage (juice, coffee, milk) *TBD*</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, spaghetti à la viande, mille-feuille breuvage (jus, café, lait)</t>
   </si>
 </sst>
 </file>
@@ -690,10 +690,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C23D3F-FE64-A34F-B126-68B68B58113C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -798,10 +798,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -810,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -822,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -834,10 +834,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -846,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -858,10 +858,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3D42E8-669B-B647-ACD9-AC2439DE8945}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,13 +918,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -933,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -945,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -957,10 +957,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -969,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -981,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -993,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -1049,30 +1049,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1109,16 +1109,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1189,16 +1189,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -1209,42 +1209,42 @@
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel/repas.xlsx
+++ b/excel/repas.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Cloe/Tour2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7B31F-B96F-4E47-9EBF-4DFFB38F0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5969FC4-BB06-AD45-BD8F-C0743C9BD0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="560" windowWidth="34080" windowHeight="28180" activeTab="2" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="38540" yWindow="3980" windowWidth="39660" windowHeight="19580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEJEUNER" sheetId="4" r:id="rId1"/>
@@ -18,28 +18,20 @@
     <sheet name="SOUPER" sheetId="5" r:id="rId3"/>
     <sheet name="QTY" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>code</t>
   </si>
@@ -74,66 +66,15 @@
     <t>Semaine</t>
   </si>
   <si>
-    <t>Soupe/potage, pain, tournedos au poulet BBQ, pomme de terre grecque, carotte et navet au beurre, tarte au sucre, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
-    <t>Soupe/potage, pain, spaghetti italien, mille-feuilles Graham, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
-    <t>Soupe/potage, pain, pâté chinois, haricot vert au beurre, short cake aux fraises, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
-    <t>Soupe/potage, pain, salade repas au poulet grillé ou tacos, salade de fruits ou brownie, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
-    <t>Soup, bread, chicken fajitas, grilled vegetables, vegetable rice, green salad, apple crisp drink (juice, coffee, milk)</t>
-  </si>
-  <si>
-    <t>Soup, bread, BBQ chicken tournedos, Greek potato, buttered carrot and turnip, sugar pie, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
-    <t>Soup, bread, Italian spaghetti, Graham mille-feuille, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
-    <t>Soup, bread, shepherd's pie, green bean with butter, strawberry shortcake, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
-    <t>Soup, bread, grilled chicken meal salad or tacos, fruit salad or brownie, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
     <t>Dim_Av</t>
   </si>
   <si>
-    <t>Soupe/potage, pain, brochette de poulet, riz pilaf, salade césar, gâteau aux carottes, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
-    <t>Soupe/potage, pain, pain viande sauce tomate, pomme de terre purée, légumes jardinière, gâteau chocolat, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
     <t>Repas à Malartic</t>
   </si>
   <si>
-    <t>Soupe/potage, pain, émincé de bœuf aux champignons, nouilles au beurre, légumes du jour, tarte au citron chantilly, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
-    <t>Soupe/potage, pain, suprême de poulet au gratin de poireaux, riz pilaf, jardinière de légumes, gâteau banane chocolat, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
-    <t>Soup, bread, chicken skewer, rice pilaf, Caesar salad, carrot cake, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
-    <t>Soup, bread, meatloaf with tomato sauce, mashed potatoes, garden vegetables, chocolate cake, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
     <t>Dinner at Malartic</t>
   </si>
   <si>
-    <t>Soup, bread, minced beef with mushrooms, buttered noodles, vegetables of the day, lemon whipped cream pie, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
-    <t>Soup, bread, chicken supreme with leek gratin, rice pilaf, garden vegetables, chocolate banana cake, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
     <t>Entrée</t>
   </si>
   <si>
@@ -200,12 +141,6 @@
     <t>Bread roll</t>
   </si>
   <si>
-    <t>Soup, bread, all-dressed pizza or pepperoni and cheese, Caesar salad, chômeur pudding, beverage (juice, coffee, milk)</t>
-  </si>
-  <si>
-    <t>Soupe/potage, pain, pizza toute garnie ou peppéroni et fromage, salade césar, pouding chômeur, breuvage (jus, café, lait)</t>
-  </si>
-  <si>
     <t>Lait</t>
   </si>
   <si>
@@ -218,38 +153,122 @@
     <t>100 % Pure Juice</t>
   </si>
   <si>
-    <t>Œuf brouillé, bacon, jambon, saucisse, crêpe avec sirop, céréale froide, gruau, banane, orange et pomme, breuvage (jus purs 200 ml, lait, café)</t>
-  </si>
-  <si>
-    <t>Scrambled egg, bacon, ham, sausage, pancake with syrup, cold cereal, oatmeal, banana, orange and apple, beverage (200 ml pure juice, milk, coffee)</t>
-  </si>
-  <si>
-    <t>**Lunch box **&lt;br/&gt; Cold meat wrap, raw vegetables dip, cheese, orzo and Indian chickpea salad, biscuit, 200ml juice</t>
-  </si>
-  <si>
-    <t>**Boîte à lunch**&lt;br/&gt; Wrap à la viande froide, crudité trempette, fromage, salade d’orzo et pois chiche à l’indienne, biscuit, jus 200ml</t>
-  </si>
-  <si>
-    <t>**Boîte à lunch**&lt;br/&gt; À confirmer</t>
-  </si>
-  <si>
-    <t>**Lunch box**&lt;br/&gt; TBD</t>
-  </si>
-  <si>
-    <t>Spaghetti, dessert, breuvage (jus, café, lait) *À valider*</t>
-  </si>
-  <si>
-    <t>Spaghetti, dessert, beverage (juice, coffee, milk) *TBD*</t>
-  </si>
-  <si>
-    <t>Soupe/potage, pain, spaghetti à la viande, mille-feuille breuvage (jus, café, lait)</t>
+    <t>Scrambled eggs, bacon, ham, sausage,roasted potatoes, pancake with syrup, cold cereal, oatmeal, banana, orange or apple, beverage  juice, milk, coffee)</t>
+  </si>
+  <si>
+    <t>Œufs brouillés, bacon, jambon, saucisse, pommes de terre rôties, crêpe avec sirop, céréales froides, gruau, banane, orange ou pomme, breuvage (jus,, lait, café)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, spaghetti à la viande, mille-feuille graham, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, tournedos de poulet BBQ, pommes de terre grecque, carottes et navets, pouding chômeur, fruit, breuvage (jus ou lait, café</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, fajitas poulet et légumes grillés, riz aux légumes, salade verte, croustade aux pommes, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soup, bread, chicken and grilled vegetables fajitas, vegetable rice, green salad, apple crisp, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soup, bread, shepherd's pie, green beans, strawberry shortcake, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, pâté chinois, haricots verts, shortcake aux fraises, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soup, bread, lasagna, Caesar salad, strawberry squares, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, lasagne, salade César, carré aux fraises, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, panini à la salde de poulet, crudités, fromage, salade d'orzo à l'indienne, biscuits, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soup, bread, chicken salad panini, raw vegetables, cheese, indian orzo salad, cookies, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>**Boîte à lunch**&lt;br/&gt; Wrap à la viande froide, crudités, fromage, salade de macaroni, biscuits, orange, jus</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, brochette de poulet, riz pilaf, salade césar, gâteau aux carottes, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soup, bread, chicken skewer, rice pilaf, Caesar salad, carrot cake, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, émincé de bœuf aux champignons, nouilles au beurre, légumes du jour, tarte au sucre, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soup, bread, minced beef with mushrooms, buttered noodles, vegetables of the day, sugar pie, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soup, bread, meatloaf with tomato sauce, mashed potatoes, garden vegetables, chocolate cake, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, Filet de porc sauce au poivre, pomme de terre au four, légumes du jour, gâteau Reine-Elizabeth, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soup, bread, pork tenderloin in peppercorn sauce, vegetables of the day, Queen Elizabeth cake, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, pain viande sauce tomate, pomme de terre purée, légumes jardinière, gâteau au chocolat,  fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Soupe/potage, pain, Assiette chinoise (riz, eggroll, légumes chinois, porc sauce sucrée, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>chicken ball)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, gâteau sucre à la crème, fruit, breuvage (jus ou lait, café)</t>
+    </r>
+  </si>
+  <si>
+    <t>Soup, bread, Chinese dish (rice, eggroll, chinese vegetables, pork in sweet sauce, chicken ball), sugar fudge cake, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, suprême de poulet au gratin de poireaux, riz pilaf, jardinière de légumes, tarte au citron, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soup, bread, chicken supreme with leek gratin, rice pilaf, garden vegetables, lemon pie, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, pizza garnie ou pepperoni/fromage, salade césar, gâteau banane-chocolat, fruit, breuvage (jus ou lait, café)</t>
+  </si>
+  <si>
+    <t>Soup, bread, all-dressed pizza or pepperoni and cheese, Caesar salad, banana chocolate cake, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>**Lunch box**&lt;br/&gt; Cold cuts wrap, raw vegetables, cheese, macaroni salad, cookies, orange, juice</t>
+  </si>
+  <si>
+    <t>Soup, bread, BBQ chicken tournedos, greek potatoes, carrots and turnips, "pouding chômeur",fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soup, bread, Italian spaghetti, graham mille-feuille, fruit, beverage (juice or milk, coffee)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +310,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,8 +350,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -345,7 +424,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="39">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -456,7 +573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -657,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1314D49-CBC5-374D-B305-DE39B33735B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,15 +802,15 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -749,15 +866,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C23D3F-FE64-A34F-B126-68B68B58113C}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,34 +908,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -822,22 +944,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -846,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -857,16 +979,15 @@
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -881,23 +1002,31 @@
       <c r="C12" s="2"/>
       <c r="D12" s="5"/>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3D42E8-669B-B647-ACD9-AC2439DE8945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="7"/>
+    <col min="1" max="1" width="11.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="132" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="131.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.1640625" style="7" customWidth="1"/>
@@ -918,13 +1047,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -932,23 +1061,23 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -957,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -969,34 +1098,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+      <c r="B8" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1005,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -1021,17 +1150,22 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
       <c r="D12" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7675F6D-E77C-884B-B4A2-C26402FFC2F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1049,30 +1183,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1089,10 +1223,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1109,16 +1243,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -1129,10 +1263,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1149,10 +1283,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -1169,16 +1303,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1189,16 +1323,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -1209,42 +1343,42 @@
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,5 +1392,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excel/repas.xlsx
+++ b/excel/repas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Cloe/Tour2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5969FC4-BB06-AD45-BD8F-C0743C9BD0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47556BAC-8048-8D41-9E74-FE6B23A18202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38540" yWindow="3980" windowWidth="39660" windowHeight="19580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEJEUNER" sheetId="4" r:id="rId1"/>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Soupe/potage, pain, lasagne, salade César, carré aux fraises, fruit, breuvage (jus ou lait, café)</t>
-  </si>
-  <si>
-    <t>Soupe/potage, pain, panini à la salde de poulet, crudités, fromage, salade d'orzo à l'indienne, biscuits, fruit, breuvage (jus ou lait, café)</t>
   </si>
   <si>
     <t>Soup, bread, chicken salad panini, raw vegetables, cheese, indian orzo salad, cookies, fruit, beverage (juice or milk, coffee)</t>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Soup, bread, Italian spaghetti, graham mille-feuille, fruit, beverage (juice or milk, coffee)</t>
+  </si>
+  <si>
+    <t>Soupe/potage, pain, panini à la salade de poulet, crudités, fromage, salade d'orzo à l'indienne, biscuits, fruit, breuvage (jus ou lait, café)</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -573,7 +573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,7 +911,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -956,10 +956,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -980,10 +980,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1050,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1062,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -1074,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1086,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1110,10 +1110,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1122,10 +1122,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1134,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="6"/>
     </row>
